--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/59_Muğla_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/59_Muğla_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8B37F28-6829-48AF-AEE4-1163DFE4E290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66867A67-F9C3-46FA-8EC7-9640E2C958F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{32515C19-F711-496A-9A7F-0A836BFF5168}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{BE6C2207-9352-414B-9A56-F7C37929397C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -969,13 +969,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{23C2F368-D433-447D-90E7-DEAD57247BA7}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BA165F58-C789-4A2F-B63F-A1605E04F666}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D735D65E-05F2-4B9A-BD45-84B49FF2317E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F63829A3-2ACE-4166-85C8-2FA9FB9C6DC1}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{726AEA3F-82E6-4502-85BE-AAD741CE0972}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{FED0EFF5-8133-41D9-9FC9-EED071FA8474}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5EA2951F-AE16-42A0-BC94-C993B9D5EFEC}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3D45CEEE-7AC6-4FBB-8DA8-FAC8221B81EF}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9B3C759F-0033-4BD2-BA5F-AB22B91A394C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4F2B71AA-64C1-41BD-B066-0AE7089F4150}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0811140E-3957-4303-91F2-4A9DE27A9476}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{75C5E5C1-809C-4272-94F3-210A30BCD78E}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{FBBF0F50-CCD0-44A4-ACE1-96F09299417A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C4840FE0-DB36-4195-BEA9-103BBEE77B5E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1345,7 +1345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1918F47-8C45-476C-AF7D-50E0CCDB847A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F636236F-3F71-4724-8E2D-A9C868C56F16}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2624,18 +2624,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48C9C025-7B86-4218-AA70-AB2A63C34353}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05208905-F6AB-405A-B639-7120DC862442}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{44D497B8-CE41-493F-8EDE-BFC36B4C401F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7B61C704-A1A9-4C3F-A74B-0B31DC65E509}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F2D67969-D614-4409-9B98-6C365E9F7B6C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{007A9332-D630-46EA-A83E-403D9210B199}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53D8F087-0E42-4626-BEEF-B925D0F360BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B55BC36B-0F48-4DC8-A72E-2FEBE0D9A0B8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3EA35B7-3AF8-43D9-9672-AC2CA4149B8A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{860BAEB6-25F0-4BFE-AFBE-3D59F0E7BFBC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A313E5C-580E-442A-966A-D368FBE4731C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69147576-F05F-4C54-B019-0B71BF11293B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D342C481-ECB4-4AAF-B477-8C217A89C830}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E166C8C-CEA4-4AF4-96AE-CBC37DC8DDA3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{839C632D-7AAD-4F84-987A-F796AB2A0926}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B06803E7-8B1F-4AA5-9B26-6C50C335FE94}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E9B138B-D51B-43D0-9DAE-868AABBF5668}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9AE0FC42-76B0-4159-9BDC-1171ED281177}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{022BF5C4-6471-4559-815A-92ADCFA35813}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E51412A-758D-4924-8CD4-6DBA094E50FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D31A891-FEF7-4C41-B34A-34717449273B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4E9CFF3D-0073-43CA-8925-A9E54DF0E528}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{823DFF5E-7A7A-4B8F-BC8B-1E325140ACB3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{356A0C8A-28C9-4C5E-A4E0-88D828E1B94B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2648,7 +2648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72029D79-0C8B-48EC-AA0F-29B49820D6C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60799A6-1440-409D-B229-D03408B5C476}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3906,18 +3906,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F81D14BD-83AF-441B-9B4F-53503500AE6C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EAAFE4EE-5D1C-4B85-A0CA-A968C0F992A7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{01EB408A-88F7-4675-A36F-069E12CEEAF9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F01230CD-E6CD-44FF-BBC4-8F34F88608C2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7FB24D62-01BB-4798-B7B4-833F175C987B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D6F3BAFF-EB2D-4F00-B1AA-7FE5AE04EE44}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A89943D-4671-41EA-A467-4C0BBCF0A978}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{521089BB-D1D9-41BD-B197-47C2F8E2C281}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{905ED3CB-0054-4A0E-8FEC-0EC76D604394}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C384839-D8F2-4D91-8E7D-A6FD5C9B40E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4579837-F6F7-44BE-A7FA-DCF84EC02F17}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE174B23-39FB-49D9-AA23-F15F4EBA358D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{808B003C-0DD2-4E09-B1E6-C090AD1BD489}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14D938FA-DA08-4F3B-9B5A-DBD6DF95D749}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{41148B6A-666A-4C14-AA06-BF90102C0FCC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AA6183DE-EAED-41E2-B672-4AF097E96DCC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{08A2E582-BFFA-451F-9DC2-3E49D29ADB06}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{53E144CC-39A7-41A7-BA0F-5439C1450153}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23452291-28C6-4A58-BCA4-34DC41CB4F07}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABFE94B0-423F-4139-ACEC-958C6C332C31}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E2C904B-E470-4930-A57F-748C884CB430}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5EDB78F5-2773-4C34-9DDE-142177459B38}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6E60B18-E0C5-480F-B30C-A59E74DF1F59}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1DB4E5CD-1DE9-401E-8921-9F3C6AE072BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3930,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE10042-3082-4EDA-BD56-D9343ADB5555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC9F528-4F43-4B5B-B332-5F2BC5C6B80C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5184,18 +5184,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08B83243-DEE1-4531-AB79-92D61B21328C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D120B551-6A4F-4DA7-A9E5-65D7298F393D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BFC252A0-5104-4944-B403-8EAC35535472}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5D9201E9-91B9-4B53-8A6D-05C106EE1B36}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF513BB1-BA29-47B5-9A4E-45DDD9B9D678}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7313CDD8-C472-4BDA-96F2-FC5D5D711FC9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C432835-E0BD-4ACB-B2F2-5FA8BC59B323}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D34273A3-2C37-4AE3-B1E5-07289A41E490}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4A6CA8D-B864-4416-B4E3-1506E4A08369}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A6C88C70-E0BC-4605-80FE-853E72309386}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C9E6E12-206C-4263-BDEB-F2280D597C01}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9F93F123-3D9D-4E97-BB93-C64381118DCD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16B52899-C771-4598-8DC5-160527FD4BFA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9D1FE6C-D54E-4F5E-A19A-2C3181CFD4FE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{111953B7-F02B-4D2F-A421-C22442CE2CE0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FA2C2359-0228-411E-9596-6563A1718B15}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A64D6177-687A-40D9-9BCE-0D87112B5548}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5584638D-879E-4787-8B4B-FBD8329A97E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D2DB275-2F49-4BE3-BD60-2427BC8645AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4623ED34-1A85-4EEF-816A-D0ECC097C68F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{128957AE-ADB0-4BD3-B402-6C6CEDACC142}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EE3DEBB7-E3B0-4BE3-90C5-532ACE732949}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{386FDDF4-F682-4A76-B848-D0E2C0F0E39A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3888A7A1-86CA-41C3-BEEF-F44B409939A0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5208,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE6D6E5-7CA6-480A-ABDC-BD2CD1D4860B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76241A61-5C06-4921-BFD1-C0EC1FEAE1B6}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6462,18 +6462,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D8075C1-64E4-4F52-81B0-6DA7D3BA41AC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1AAF7BC-6768-46C7-BA68-2CC608467B0A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{48277F4B-81C4-4DD9-8BDD-1AAADD786A22}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{23AADC7F-81E2-4DBF-A70E-825C646A1E8B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13B96AF8-4E15-4107-B0A5-512413B0A402}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C0405115-CE6C-4162-8E89-08A99C98EB53}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2AB92FC-1AA1-48DB-B734-6F76248A9C75}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE6DEEEB-C7FC-4C47-A996-69978FF1DA6A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82D3B060-E03B-4C81-9B50-909242F1C71F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DA319CD6-B579-47CB-A70B-10DF2EED4219}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F07054E-D04A-482B-9938-0AD3DA15776E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62A141F5-799A-43BF-8794-B5403E1CFF3A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5AC81E9E-AE3F-49AE-87AF-95A127F1ADE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{888A07D5-AF66-4EC8-AE6B-22162240B4D4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F1166AEC-2B99-4C4E-86DF-7B252D52F1C6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FEA96755-7333-4184-874E-B1BE68C8DB6D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1BDC6E1F-1030-4EF6-98D6-CB256696A83E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BBD8BE3C-1623-4762-9579-D8F0A80232B9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BFBF153-2940-4745-B3F4-78D3F3F976D6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52EDF0BF-EEFD-49D8-A364-F4DCADA84410}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33171945-6C7F-40AA-8CEF-0E800428B898}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00C661F9-B4A6-4CB4-9257-DEE1755707CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5202F6D-9A52-4ADA-935D-112B831F0871}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79222650-CCD6-46CA-95ED-362E4AB09016}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6486,7 +6486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8A4F7E-3279-42B9-8AE4-9FA444F0BCEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ABFAD5-0F0E-4BB3-AF29-DF3582FCF421}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7767,18 +7767,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9E31F37-04A3-4FD8-B049-9DA1B907E4AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5CC45C81-EC38-4B92-B213-4B7AC0BF24CA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{724E3F38-5927-41D4-82B8-2EAF66A55052}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5042D96F-9C44-476D-8C23-4F802FC1BEDD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E359C1EE-01D2-4F74-9C58-9EC5F52244B4}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{58E662C4-39A9-4B05-BB85-D5B46BCB22DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93A0B041-DA4B-4265-8D42-FBC9E883F952}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A6F4D9A-C12F-47AE-9068-E05F50BC975A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB1C2DE3-6AA6-499F-A63C-018C7D2A8D9C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{01AEC1F6-77F4-4C0A-9BD0-4C3A063889B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1303EA1-6152-4755-A657-73054380ED33}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7E1D1AD1-269A-4095-89DA-B8AA36E1C6CF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1BB2E0C2-3963-41FF-83C2-4B64226537EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B6C1653-3579-4F17-84C4-AE8D77FEF28D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E5E37ABF-222E-48AA-A11C-32018B47A740}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D1868FBF-DF40-4469-A0FF-085051FEC5C8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{336648D0-A79D-4927-91F6-B30467FF7C90}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F44DF216-88D3-4DE9-B896-C1D281F152EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6E54EF8-7AAB-4965-8F76-39114FABCD43}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4686FD1F-07A8-4CD6-A20D-E74E6754751F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{07900E30-82DA-40F3-AEE6-F01B177ABFC8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D847F12C-052B-465D-A3B7-66E227EA82AC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E618F410-3391-4CE7-88CB-66CCD6B22C85}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B6EC02F-ECB4-487F-8926-442A88702A60}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7791,7 +7791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAF4713-D34F-41E3-BAF3-CA82F8791512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983433DC-8069-4F63-9A53-83E33E9DDCE4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9072,18 +9072,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3C8A1AA-A670-4F65-B9A7-DEB71D785ECA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3BB397A-B626-44C7-8633-DEA07E68EA88}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DBAFA401-2ADC-4746-B10B-DB1293C0F020}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FBA589E1-98B9-445F-93AE-E81F5D491C39}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC7CD840-7B29-4B9C-AAB0-6EA9EF202567}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{690BA1A6-6E65-497F-873D-7B5000CC7FEC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D2E6C5E3-54C4-4E14-9575-80774644A493}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F0DED28-4750-4E61-A162-5D999FCDE7D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2705202-7A47-49BC-818B-B3D29394B5AF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B9CD0FE2-5FE9-4E08-8C6F-3831BD1F659C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{215952CB-5B70-4FEF-AC1E-6D1AECFEDF1A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{222B4AED-2A07-408E-BD05-1A8C799D148E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F8108EAA-82DB-41A8-944C-28281378CE84}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1095F7A1-9FDE-4D32-86E4-98E91646A85C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9400D81C-B4F2-494E-87CD-AFD2E6AD4D0B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5150E809-EB50-4144-B3F0-6FFD5833B509}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C19AB56D-3AB4-474C-BB94-30023FB710F6}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F48B5EE9-0E3D-473A-9267-2DD8B77BB433}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3D435A4-9349-41C7-923F-C44227D19C22}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F594F29-0E40-4857-B882-023911D80090}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E82598D-80BC-4C70-B563-70006E102CF3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{57C2FF58-61C5-40FE-AC42-96E160D40682}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F35D0A8-A346-4F9D-B955-655E23B8E7FF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{815FD659-29A8-4DD6-AB5A-36E4C1BE071E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9096,7 +9096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A206D58F-A625-4A4C-BC05-0AC3768B4A36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0D49D-408F-4197-84F9-E8EF084CE3BF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10373,18 +10373,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAD778EB-CC3F-4744-927B-8D39B5F1B2E6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D01FD9A-7C5B-4156-8E8F-FFE51D3D4118}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F57410B7-B648-491D-9945-0A01047B2178}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D0785E45-A6B8-4DEB-B1BE-8F6CD0FF737C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{49398FAC-0689-45C2-BDF0-F24EB7D6F282}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C8CC60BD-E3DC-44C8-BF55-D6F7EEF2DE37}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD345BF7-C1DC-4BD9-BA15-CBB4F010BBBF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D815152C-39CE-4208-9621-5CB8646907CC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3CC095C-4294-4718-B26A-9565AA2870C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A506C354-5D5A-4779-99BF-0528D839C9AF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B137D29D-B78F-4AFD-8EA0-05AA81AAF52A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50B4B551-B3A0-4E85-B0F2-C35CA581E221}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE5914A7-9721-471E-9636-05F7FA303E31}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B3954B0-7F50-4D8D-A097-D92F5CD1F208}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF6AF01A-1530-4C36-B6ED-DE297A2A422C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{24458595-0A3D-47CB-B414-F1393A1BCD2F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0E49D8C-E41B-4574-8D89-427F1F05B1CE}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{898BC42B-AB1C-4217-A47E-52ED4C327291}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF8F0251-8D66-421D-ABD8-C08D7F12649B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6439DF85-2C36-47C9-95E5-2E8FF5E0069D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C9446651-3485-41F2-A596-F2974C01D7D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{596D25B1-1C70-4C43-9B50-4E9795B7943C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82C08BCA-1EF7-475B-A650-AB8B2740FF40}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AED01881-C4A5-41E3-AD9A-9706806C95C6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10397,7 +10397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DE772D-B9AC-415D-9DBE-574AC4199DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535D8CF8-FB11-487B-8268-DFAAFF3333E2}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11675,18 +11675,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4737A57-BC94-418B-B620-90C092515426}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D81F5256-32DE-4F8D-B154-8AC668126FFD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EA66CB96-D9FA-43AB-ACA1-8929C2E25CE3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6A526666-B494-44E4-B1A5-AA6636ADC832}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BCB17C61-FBE0-46AC-B0A4-223E2F3DD0E1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{353F0C7E-61E6-4CFE-A75D-6A910250B0F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22A56180-B353-4BD7-A588-E47DCF20A01B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9E0EA6B-CEAE-4737-A0FD-1676594137D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AB98828C-F0BF-4D1B-9957-357317DE18D2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA337A06-FFB9-4024-B097-1C659D2E32DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFC860AB-16F3-4EC3-9368-D2D311979CB2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FA81CE33-9804-46EB-AE90-D98540562DC0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00FA7FCD-952E-4826-8AF1-7F574E920AD6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36BD2763-A4A0-4556-B57D-3CE759DEE040}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{08B6DA4F-2D51-4616-B423-03985EAE1F03}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1071AED0-AFBB-47CE-A2EB-3E8B41AFE398}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5434E3C-EEE2-40D4-8FCB-D0708A1F2851}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{144C041E-775F-4B2E-BE14-E5851A3E225E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{343EDDFC-D004-4F09-8D89-937018A640D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB424665-6C09-4DE4-A173-FAAB29505ED3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8555A1B9-2E11-4190-853F-03ADD36A7A08}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6D4B209E-EC46-487E-AF16-5D6B416D034D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2412D1A-6D2E-4B0F-AB86-DAF7E119B89D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70F89FF7-48F1-4389-8814-64146220563E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11699,7 +11699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78774F33-05AF-47D0-B871-4BBC84E03C2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F68DB4-07EC-489E-B1FB-101D1C68AF13}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12977,18 +12977,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD3D22E1-15B4-49C3-A5A3-D627C4DE911C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DB0F5E9-C03D-4601-B754-F5635E14948D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{27DE271B-5290-4BFD-9711-640F5AA273BA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{68185A47-3C58-4C24-809E-8A99A81F313E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A58DA8A-7176-45D7-AA7A-3A768D6FB8FD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E8542254-27B6-4DB2-83F3-7516D83C0025}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB74AEAA-DE23-492E-9DBF-0BE80DCE02FC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63DDA96F-21BB-4A8F-A1CB-307F79ADAB66}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BEA2A590-6051-44EA-8879-88D97DA6F128}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{57613D6C-1A39-4112-9BBD-08A21E239267}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{539482F8-CC51-473F-9E53-8BA6593EE153}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0C7B0A8B-C1AE-4BB5-924A-EEDB0AC50903}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2885B9A-7C89-49CF-8230-ADC029B6F5C2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0595957E-4B71-44D6-82FD-5AD87658D349}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{50879D68-54B7-45BC-A207-5576A708F3D7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{27345FF4-B673-4D64-9028-0967CDA6C8B9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF72D729-C1B6-4E37-857E-AED79A36B297}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FBF3043F-31EB-48C7-AC37-74798239FA94}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D9348F7-B021-43D2-8DF6-D6F66AB9D394}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{540C6B32-03DF-429F-9150-EFBEB674B280}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{175DB657-EAB4-4084-A55F-02BA40FFD57E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8EF423DA-6865-4050-8046-8F90D60B6A21}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8EB4BB0-A835-43A5-8421-518319536CC8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6BF78846-9F49-4570-98F9-3320BA1084D0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13001,7 +13001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7234F4-3628-432B-A06B-102F37E39E2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79579F09-EE32-4DEC-8211-C72D38BD05CC}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14275,18 +14275,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3EFD0186-FC6A-4CDE-AF27-A454D19D1C8C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42F72401-2D8B-44E5-973B-47AB05D774F9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0EE73C0A-6BAE-4547-B620-5D4950EF3513}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{93E42737-DC1D-4986-B78E-228F10072CAE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBFBDC2A-EA89-4DAF-86F5-92EA0C4C81DA}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3357796A-B38F-455C-B372-97D9D882C576}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9ED8DDB-739D-4034-98BD-54B359CDF533}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CBAAA8A7-06DF-482C-9C06-6520AF1AE841}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D8865E7-44AD-428E-ACC0-A55616BC7913}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{710BE8F9-39BA-46EA-A14E-C2F23E4D4CF4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{231CAE8B-320E-442B-A9B9-E0A4468BA555}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6AFBE158-77F9-454C-8737-96B7C4085CE0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75442B66-B968-4423-B6DB-737438F43D98}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C3DFA82-E521-425A-AB26-8B88472D9A48}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{50C8C701-6B65-4957-8FB5-4C128A2DFCA7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{62FD3520-D799-437F-8970-7961E37EDD6A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0139751-9C44-4AAD-BFE2-79EBE4144F49}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8EF98EBB-8D07-44A0-AE7B-E0FB243006ED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B949B654-DE13-4965-BE81-37CA2227FFFD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A9142E1-8379-48DE-BA6C-5D8140FDC3A3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C239483-D4DE-42C0-9538-F26FC7729020}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3E23BD94-E776-4908-91AE-B3D75E52FBC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4910FB4-5E4A-4740-A788-BB59C9403E80}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{11BE3BE1-4BCB-40DB-987F-2EDF5CD192BD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14299,7 +14299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634BED49-2317-416C-848A-2BE420EF4A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBF13C7-FF17-43CB-8218-6A8FD63830C8}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15569,18 +15569,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C787645-1167-4CA9-A5C0-DF0306D9F4C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{043F50CD-EACD-478C-ACE8-612681FEE134}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D4DBDFFB-7FB1-4A70-BD46-1A2FE561C9DB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{55CA5FCE-9A32-47FC-8406-88A0FC688366}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8DEEFC6F-E846-42F4-B2C3-F9B66F012EEC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1469D6EF-B036-4A40-ADBC-867919033AE3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F05B7493-D6B6-4BEF-9F1E-AD008F6DCAD8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{995C9269-A74F-4500-B063-C4BE6F93A972}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA2490F7-FD7A-4813-9275-89F406C4B5CF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3CAE9E83-756B-4B20-A0CC-A3D86667489D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A60D1310-C16D-49E8-808E-4FCA1BB30D49}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F1E1DCE-0DD1-459B-B8BF-D939D0BCE115}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C38D54E-623A-4784-BFDD-0CC6516B876C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F22DB5F-DDD7-42CA-AEF5-EF11016CEA7E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{70B7ECDF-039B-4C78-8B95-CD7B04833D1A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DCF52633-34BB-47AE-978E-7F57ABEA7879}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D543BA9-3913-473D-96EA-0CAAD5371C34}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9422CDD2-8E12-4A04-A844-7D6C0781BEE3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE4F6AAD-D844-4E44-A06D-AEF56787EF5A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BA62222-C48B-410B-A5F0-4986B59D98D9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6EC8BEDC-6A9E-41C9-86BC-CAB57E340065}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1333E426-A303-4B75-AB8B-22B92EAE86AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24236CB7-41C2-44B6-ABB1-9E3C09826386}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{26C88010-2EAC-46AD-B9B4-E6274049AA21}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15593,7 +15593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0D1AC4-1DA9-4E88-B2E6-80D0B902AA7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF402F20-30A5-4524-929A-3B79AAF8FB8C}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16855,18 +16855,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AED6281-918B-4901-B7CA-A20975ACBDBA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8AE3B0DF-B5C1-46C8-869C-D949A72B5B76}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E65D5E05-1D37-4A1A-839F-85AB172DDAE9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A89EDFB7-FDB1-4B8C-BB5E-7867DD52C6A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{377C715B-FB97-48AC-A9BD-F2986048D296}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{33534E93-E515-41DA-84EE-169CEDF22052}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A49E92AF-2610-40E6-96F5-9562706AB1E7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33237275-31F9-4AEE-A9B4-52C576AD0367}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6BDAC11F-0971-4228-8339-C1F6313A91B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31CB05E2-D09F-475F-9A36-B29F6EFB0AF8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE463FD9-3372-4274-BE67-5387D839ABAD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A42661F6-9523-401D-BB9A-160B4B8630DC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A5442FD-18E2-4E53-B8FA-0CD5A5BCC441}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED0BDC9F-8441-4C4F-AF60-ED75523CCA9D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2A553D7E-938E-4368-B297-EF2756F37DDC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{89DD02E1-63C2-4C75-B99C-72B031F00273}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{095CE778-0A42-49E9-9D3A-B569A8619AF6}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0CC53061-68AC-4CFB-B460-46DE296569E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8258E2FD-4FBC-4041-8CC9-5C8FA85414FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D83AEC04-85BF-4F0C-9A30-687252B38C8D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB50D0F1-77A3-442F-A3BB-B16A901CF475}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3D4783E4-8241-4328-A8C4-4D5D84771743}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6EE8AF4-8EF2-4641-89BE-D2034E58CFD5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24BE4AB9-2751-444C-9CFE-D44EDE7BFF97}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
